--- a/analysis/pre_gemini_data/Participant130/task_easy.xlsx
+++ b/analysis/pre_gemini_data/Participant130/task_easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,87 +422,83 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>conditionstate1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>exceptionhand1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -553,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -575,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -602,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -624,10 +608,10 @@
         <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -651,10 +635,10 @@
         <v>834.17</v>
       </c>
       <c r="C5" t="n">
-        <v>35027.95</v>
+        <v>34794.3</v>
       </c>
       <c r="D5" t="n">
-        <v>9443.049999999999</v>
+        <v>9309.559999999999</v>
       </c>
       <c r="E5" t="n">
         <v>3220.8</v>
@@ -673,10 +657,10 @@
         <v>5797.67</v>
       </c>
       <c r="K5" t="n">
-        <v>3061.68</v>
+        <v>2928.19</v>
       </c>
       <c r="L5" t="n">
-        <v>62723.03</v>
+        <v>39032.3</v>
       </c>
       <c r="M5" t="n">
         <v>667.35</v>
@@ -697,44 +681,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="C6" t="n">
-        <v>13.48</v>
+        <v>20.27</v>
       </c>
       <c r="D6" t="n">
-        <v>3.63</v>
+        <v>5.42</v>
       </c>
       <c r="E6" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="I6" t="n">
-        <v>3.99</v>
+        <v>6.04</v>
       </c>
       <c r="J6" t="n">
-        <v>2.23</v>
+        <v>3.38</v>
       </c>
       <c r="K6" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="L6" t="n">
-        <v>24.14</v>
+        <v>22.74</v>
       </c>
       <c r="M6" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="N6" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -749,10 +733,10 @@
         <v>417.08</v>
       </c>
       <c r="C7" t="n">
-        <v>384.92</v>
+        <v>390.95</v>
       </c>
       <c r="D7" t="n">
-        <v>449.67</v>
+        <v>465.48</v>
       </c>
       <c r="E7" t="n">
         <v>536.8</v>
@@ -771,10 +755,10 @@
         <v>527.0599999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>278.33</v>
+        <v>292.82</v>
       </c>
       <c r="L7" t="n">
-        <v>387.18</v>
+        <v>358.09</v>
       </c>
       <c r="M7" t="n">
         <v>667.35</v>
